--- a/図書貸出システム/正規化の流れ.xlsx
+++ b/図書貸出システム/正規化の流れ.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$29:$G$48</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -60,6 +63,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">HTMLCSS</t>
     </r>
@@ -68,6 +72,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">基礎の本</t>
     </r>
@@ -119,6 +124,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,12 +145,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -216,6 +224,13 @@
       <left/>
       <right style="thin"/>
       <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -245,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,7 +269,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,6 +310,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,10 +349,10 @@
   <dimension ref="B3:I48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.4"/>
@@ -616,20 +647,20 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7"/>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="9"/>
@@ -644,52 +675,52 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7"/>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="7"/>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7"/>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="9"/>
@@ -704,32 +735,32 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="7"/>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="16" t="n">
         <v>45380</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="16" t="n">
         <v>45397</v>
       </c>
       <c r="G41" s="9"/>
@@ -744,40 +775,40 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="7"/>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7"/>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="7"/>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="9"/>

--- a/図書貸出システム/正規化の流れ.xlsx
+++ b/図書貸出システム/正規化の流れ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t xml:space="preserve">図書貸出カード</t>
   </si>
@@ -109,6 +109,48 @@
   </si>
   <si>
     <t xml:space="preserve">k003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lend_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lending表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">books表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lending_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">books_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lend_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member</t>
   </si>
 </sst>
 </file>
@@ -163,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -231,6 +273,27 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -260,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +390,30 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,13 +433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:I48"/>
+  <dimension ref="B3:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.4"/>
@@ -820,6 +907,77 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C55" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E56" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E57" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C60" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C61" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" s="17" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C62" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
